--- a/app/backend/ledger_api/app/infra/data_sources/templates/block_unit_price.xlsx
+++ b/app/backend/ledger_api/app/infra/data_sources/templates/block_unit_price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\koujiro\work_env\22.Work_React\sanbou_app\my-project\backend\ledger_api\app\api\st_app\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\koujiro\work_env\22.Work_React\sanbou_app\app\backend\ledger_api\app\infra\data_sources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28840F7-FE8B-4B9D-833C-878D9B6BD9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD53B799-3A9E-4C37-9593-8B04DD48C75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,7 +957,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
